--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H2">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I2">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J2">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N2">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O2">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P2">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q2">
-        <v>2091.029172144683</v>
+        <v>2244.37152774441</v>
       </c>
       <c r="R2">
-        <v>18819.26254930215</v>
+        <v>20199.34374969969</v>
       </c>
       <c r="S2">
-        <v>0.5007917747548787</v>
+        <v>0.7706348683223605</v>
       </c>
       <c r="T2">
-        <v>0.5007917747548789</v>
+        <v>0.7706348683223604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H3">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I3">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J3">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N3">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O3">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P3">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q3">
-        <v>580.8978136248967</v>
+        <v>175.3950299033133</v>
       </c>
       <c r="R3">
-        <v>5228.08032262407</v>
+        <v>1578.55526912982</v>
       </c>
       <c r="S3">
-        <v>0.1391223283308226</v>
+        <v>0.06022422050139687</v>
       </c>
       <c r="T3">
-        <v>0.1391223283308226</v>
+        <v>0.06022422050139687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H4">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I4">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J4">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N4">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O4">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P4">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q4">
-        <v>23.63464424245389</v>
+        <v>17.22824395148334</v>
       </c>
       <c r="R4">
-        <v>212.711798182085</v>
+        <v>155.05419556335</v>
       </c>
       <c r="S4">
-        <v>0.005660387522828731</v>
+        <v>0.005915547111899032</v>
       </c>
       <c r="T4">
-        <v>0.005660387522828733</v>
+        <v>0.005915547111899031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H5">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I5">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J5">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N5">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O5">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P5">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q5">
-        <v>101.4513450063446</v>
+        <v>131.2767690857567</v>
       </c>
       <c r="R5">
-        <v>913.062105057101</v>
+        <v>1181.49092177181</v>
       </c>
       <c r="S5">
-        <v>0.02429712592908837</v>
+        <v>0.04507562781277089</v>
       </c>
       <c r="T5">
-        <v>0.02429712592908838</v>
+        <v>0.04507562781277089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H6">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I6">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J6">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N6">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O6">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P6">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q6">
-        <v>1011.947377822561</v>
+        <v>115.55736346854</v>
       </c>
       <c r="R6">
-        <v>9107.526400403049</v>
+        <v>1040.01627121686</v>
       </c>
       <c r="S6">
-        <v>0.2423566969075461</v>
+        <v>0.03967816044688249</v>
       </c>
       <c r="T6">
-        <v>0.2423566969075462</v>
+        <v>0.03967816044688249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,13 +856,13 @@
         <v>3.316953</v>
       </c>
       <c r="H7">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I7">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J7">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N7">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O7">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P7">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q7">
-        <v>76.162413115378</v>
+        <v>109.598621713974</v>
       </c>
       <c r="R7">
-        <v>685.4617180384021</v>
+        <v>986.3875954257659</v>
       </c>
       <c r="S7">
-        <v>0.0182405441979292</v>
+        <v>0.03763214707047333</v>
       </c>
       <c r="T7">
-        <v>0.0182405441979292</v>
+        <v>0.03763214707047332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>3.316953</v>
       </c>
       <c r="H8">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I8">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J8">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N8">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O8">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P8">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q8">
-        <v>21.15827930499</v>
+        <v>8.565005078371998</v>
       </c>
       <c r="R8">
-        <v>190.42451374491</v>
+        <v>77.08504570534798</v>
       </c>
       <c r="S8">
-        <v>0.005067309622006655</v>
+        <v>0.002940908614798298</v>
       </c>
       <c r="T8">
-        <v>0.005067309622006656</v>
+        <v>0.002940908614798298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,43 +980,43 @@
         <v>3.316953</v>
       </c>
       <c r="H9">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I9">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J9">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N9">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O9">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P9">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q9">
-        <v>0.8608543403450001</v>
+        <v>0.84130090241</v>
       </c>
       <c r="R9">
-        <v>7.747689063105001</v>
+        <v>7.57170812169</v>
       </c>
       <c r="S9">
-        <v>0.0002061706161969239</v>
+        <v>0.0002888718744350628</v>
       </c>
       <c r="T9">
-        <v>0.0002061706161969239</v>
+        <v>0.0002888718744350628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>3.316953</v>
       </c>
       <c r="H10">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I10">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J10">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N10">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O10">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P10">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q10">
-        <v>3.695203946657</v>
+        <v>6.410593244926</v>
       </c>
       <c r="R10">
-        <v>33.256835519913</v>
+        <v>57.695339204334</v>
       </c>
       <c r="S10">
-        <v>0.0008849841825160099</v>
+        <v>0.002201162606146889</v>
       </c>
       <c r="T10">
-        <v>0.00088498418251601</v>
+        <v>0.002201162606146889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>3.316953</v>
       </c>
       <c r="H11">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I11">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J11">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N11">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O11">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P11">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q11">
-        <v>36.858574364936</v>
+        <v>5.642972925155999</v>
       </c>
       <c r="R11">
-        <v>331.7271692844241</v>
+        <v>50.786756326404</v>
       </c>
       <c r="S11">
-        <v>0.008827457367425859</v>
+        <v>0.001937589941490056</v>
       </c>
       <c r="T11">
-        <v>0.008827457367425861</v>
+        <v>0.001937589941490056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H12">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I12">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J12">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N12">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O12">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P12">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q12">
-        <v>1.666427514763555</v>
+        <v>2.451448947936</v>
       </c>
       <c r="R12">
-        <v>14.997847632872</v>
+        <v>22.063040531424</v>
       </c>
       <c r="S12">
-        <v>0.0003991016499128303</v>
+        <v>0.0008417376596691473</v>
       </c>
       <c r="T12">
-        <v>0.0003991016499128303</v>
+        <v>0.0008417376596691473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H13">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I13">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J13">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N13">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O13">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P13">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q13">
-        <v>0.4629414609733333</v>
+        <v>0.1915778899413333</v>
       </c>
       <c r="R13">
-        <v>4.166473148759999</v>
+        <v>1.724201009472</v>
       </c>
       <c r="S13">
-        <v>0.0001108723297297024</v>
+        <v>6.578082111778952E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001108723297297024</v>
+        <v>6.578082111778954E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H14">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I14">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J14">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N14">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O14">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P14">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q14">
-        <v>0.01883542419777778</v>
+        <v>0.01881781157333333</v>
       </c>
       <c r="R14">
-        <v>0.16951881778</v>
+        <v>0.16936030416</v>
       </c>
       <c r="S14">
-        <v>4.510996612539585E-06</v>
+        <v>6.461346334447965E-06</v>
       </c>
       <c r="T14">
-        <v>4.510996612539586E-06</v>
+        <v>6.461346334447965E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H15">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I15">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J15">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N15">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O15">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P15">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q15">
-        <v>0.0808507671631111</v>
+        <v>0.1433890483306667</v>
       </c>
       <c r="R15">
-        <v>0.7276569044679999</v>
+        <v>1.290501434976</v>
       </c>
       <c r="S15">
-        <v>1.936338321687763E-05</v>
+        <v>4.923454027694996E-05</v>
       </c>
       <c r="T15">
-        <v>1.936338321687763E-05</v>
+        <v>4.923454027694997E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H16">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I16">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J16">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N16">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O16">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P16">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q16">
-        <v>0.8064626626737778</v>
+        <v>0.126219288384</v>
       </c>
       <c r="R16">
-        <v>7.258163964064</v>
+        <v>1.135973595456</v>
       </c>
       <c r="S16">
-        <v>0.0001931440620217237</v>
+        <v>4.333907442735253E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001931440620217237</v>
+        <v>4.333907442735253E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H17">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I17">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J17">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N17">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O17">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P17">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q17">
-        <v>88.220675999278</v>
+        <v>27.28478230801</v>
       </c>
       <c r="R17">
-        <v>793.986083993502</v>
+        <v>245.56304077209</v>
       </c>
       <c r="S17">
-        <v>0.02112844215293264</v>
+        <v>0.009368593551117297</v>
       </c>
       <c r="T17">
-        <v>0.02112844215293264</v>
+        <v>0.009368593551117297</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H18">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I18">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J18">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N18">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O18">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P18">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q18">
-        <v>24.50812187949</v>
+        <v>2.132274068557777</v>
       </c>
       <c r="R18">
-        <v>220.57309691541</v>
+        <v>19.19046661702</v>
       </c>
       <c r="S18">
-        <v>0.005869581359953136</v>
+        <v>0.000732144712110844</v>
       </c>
       <c r="T18">
-        <v>0.005869581359953137</v>
+        <v>0.0007321447121108441</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H19">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I19">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J19">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N19">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O19">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P19">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q19">
-        <v>0.9971473950950001</v>
+        <v>0.2094434365944445</v>
       </c>
       <c r="R19">
-        <v>8.974326555855001</v>
+        <v>1.88499092935</v>
       </c>
       <c r="S19">
-        <v>0.0002388121697841512</v>
+        <v>7.191519460378895E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002388121697841513</v>
+        <v>7.191519460378895E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H20">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I20">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J20">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N20">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O20">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P20">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q20">
-        <v>4.280239777007</v>
+        <v>1.595929204378889</v>
       </c>
       <c r="R20">
-        <v>38.522157993063</v>
+        <v>14.36336283941</v>
       </c>
       <c r="S20">
-        <v>0.001025097546633102</v>
+        <v>0.000547983556672705</v>
       </c>
       <c r="T20">
-        <v>0.001025097546633102</v>
+        <v>0.000547983556672705</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H21">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I21">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J21">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N21">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O21">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P21">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q21">
-        <v>42.69413499173601</v>
+        <v>1.40482868694</v>
       </c>
       <c r="R21">
-        <v>384.2472149256241</v>
+        <v>12.64345818246</v>
       </c>
       <c r="S21">
-        <v>0.01022504703375628</v>
+        <v>0.0004823666477641974</v>
       </c>
       <c r="T21">
-        <v>0.01022504703375628</v>
+        <v>0.0004823666477641974</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H22">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I22">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J22">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N22">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O22">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P22">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q22">
-        <v>30.83647102999955</v>
+        <v>40.25488526356799</v>
       </c>
       <c r="R22">
-        <v>277.528239269996</v>
+        <v>362.293967372112</v>
       </c>
       <c r="S22">
-        <v>0.007385191588911207</v>
+        <v>0.01382205121609181</v>
       </c>
       <c r="T22">
-        <v>0.007385191588911208</v>
+        <v>0.01382205121609181</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H23">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I23">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J23">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N23">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O23">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P23">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q23">
-        <v>8.566517789353334</v>
+        <v>3.145872560437332</v>
       </c>
       <c r="R23">
-        <v>77.09866010418</v>
+        <v>28.31285304393599</v>
       </c>
       <c r="S23">
-        <v>0.002051641222584846</v>
+        <v>0.001080177259603711</v>
       </c>
       <c r="T23">
-        <v>0.002051641222584846</v>
+        <v>0.001080177259603711</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H24">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I24">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J24">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N24">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O24">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P24">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q24">
-        <v>0.3485408200877778</v>
+        <v>0.3090045364533333</v>
       </c>
       <c r="R24">
-        <v>3.13686738079</v>
+        <v>2.78104082808</v>
       </c>
       <c r="S24">
-        <v>8.347390758171682E-05</v>
+        <v>0.0001061008248041921</v>
       </c>
       <c r="T24">
-        <v>8.347390758171683E-05</v>
+        <v>0.0001061008248041921</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H25">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I25">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J25">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N25">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O25">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P25">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q25">
-        <v>1.496106081597111</v>
+        <v>2.354570627898666</v>
       </c>
       <c r="R25">
-        <v>13.464954734374</v>
+        <v>21.191135651088</v>
       </c>
       <c r="S25">
-        <v>0.0003583104577427403</v>
+        <v>0.0008084731976661502</v>
       </c>
       <c r="T25">
-        <v>0.0003583104577427403</v>
+        <v>0.0008084731976661504</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H26">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I26">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J26">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N26">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O26">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P26">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q26">
-        <v>14.92321887030578</v>
+        <v>2.072628506592</v>
       </c>
       <c r="R26">
-        <v>134.308969832752</v>
+        <v>18.653656559328</v>
       </c>
       <c r="S26">
-        <v>0.003574041607200889</v>
+        <v>0.000711664613685382</v>
       </c>
       <c r="T26">
-        <v>0.003574041607200889</v>
+        <v>0.000711664613685382</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H27">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I27">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J27">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N27">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O27">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P27">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q27">
-        <v>4.306141952695333</v>
+        <v>11.52685225809</v>
       </c>
       <c r="R27">
-        <v>38.755277574258</v>
+        <v>103.74167032281</v>
       </c>
       <c r="S27">
-        <v>0.001031300997405464</v>
+        <v>0.00395789830795612</v>
       </c>
       <c r="T27">
-        <v>0.001031300997405465</v>
+        <v>0.003957898307956119</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H28">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I28">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J28">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N28">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O28">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P28">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q28">
-        <v>1.19626664171</v>
+        <v>0.90081012502</v>
       </c>
       <c r="R28">
-        <v>10.76639977539</v>
+        <v>8.10729112518</v>
       </c>
       <c r="S28">
-        <v>0.0002865003045211258</v>
+        <v>0.000309305158926117</v>
       </c>
       <c r="T28">
-        <v>0.0002865003045211259</v>
+        <v>0.000309305158926117</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H29">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I29">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J29">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N29">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O29">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P29">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q29">
-        <v>0.04867179017166666</v>
+        <v>0.08848241935000002</v>
       </c>
       <c r="R29">
-        <v>0.4380461115449999</v>
+        <v>0.7963417741500001</v>
       </c>
       <c r="S29">
-        <v>1.165666768559051E-05</v>
+        <v>3.038161763402854E-05</v>
       </c>
       <c r="T29">
-        <v>1.165666768559051E-05</v>
+        <v>3.038161763402854E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H30">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I30">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J30">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N30">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O30">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P30">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q30">
-        <v>0.2089229068196666</v>
+        <v>0.6742234534100001</v>
       </c>
       <c r="R30">
-        <v>1.880306161377</v>
+        <v>6.068011080690002</v>
       </c>
       <c r="S30">
-        <v>5.00360658220074E-05</v>
+        <v>0.000231503606161249</v>
       </c>
       <c r="T30">
-        <v>5.003606582200741E-05</v>
+        <v>0.000231503606161249</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H31">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I31">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J31">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N31">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O31">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P31">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q31">
-        <v>2.083944650610666</v>
+        <v>0.5934902664600001</v>
       </c>
       <c r="R31">
-        <v>18.755501855496</v>
+        <v>5.341412398140001</v>
       </c>
       <c r="S31">
-        <v>0.0004990950647521816</v>
+        <v>0.0002037827907234482</v>
       </c>
       <c r="T31">
-        <v>0.0004990950647521817</v>
+        <v>0.0002037827907234482</v>
       </c>
     </row>
   </sheetData>
